--- a/streamflow_week_1.xlsx
+++ b/streamflow_week_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="4">
   <si>
     <t>USGS</t>
   </si>
@@ -366,7 +366,7 @@
   <dimension ref="A1:T247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22:S22"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,8 +412,8 @@
         <v>1</v>
       </c>
       <c r="M1">
-        <f>AVERAGE(K1:K238)</f>
-        <v>169.62563025210079</v>
+        <f>AVERAGE(K1:K245)</f>
+        <v>167.2167346938775</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
@@ -11590,6 +11590,21 @@
       <c r="E239" t="s">
         <v>3</v>
       </c>
+      <c r="H239" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>9506000</v>
+      </c>
+      <c r="J239" s="2">
+        <v>45167</v>
+      </c>
+      <c r="K239">
+        <v>65.2</v>
+      </c>
+      <c r="L239" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
@@ -11607,8 +11622,23 @@
       <c r="E240" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H240" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>9506000</v>
+      </c>
+      <c r="J240" s="2">
+        <v>45168</v>
+      </c>
+      <c r="K240">
+        <v>58.8</v>
+      </c>
+      <c r="L240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>0</v>
       </c>
@@ -11624,8 +11654,23 @@
       <c r="E241" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H241" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>9506000</v>
+      </c>
+      <c r="J241" s="2">
+        <v>45169</v>
+      </c>
+      <c r="K241">
+        <v>58.7</v>
+      </c>
+      <c r="L241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>0</v>
       </c>
@@ -11641,8 +11686,23 @@
       <c r="E242" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>9506000</v>
+      </c>
+      <c r="J242" s="2">
+        <v>45170</v>
+      </c>
+      <c r="K242">
+        <v>58.6</v>
+      </c>
+      <c r="L242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>0</v>
       </c>
@@ -11658,8 +11718,23 @@
       <c r="E243" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H243" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>9506000</v>
+      </c>
+      <c r="J243" s="2">
+        <v>45171</v>
+      </c>
+      <c r="K243">
+        <v>63.9</v>
+      </c>
+      <c r="L243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>0</v>
       </c>
@@ -11675,8 +11750,23 @@
       <c r="E244" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H244" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>9506000</v>
+      </c>
+      <c r="J244" s="2">
+        <v>45172</v>
+      </c>
+      <c r="K244">
+        <v>157</v>
+      </c>
+      <c r="L244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>0</v>
       </c>
@@ -11692,13 +11782,28 @@
       <c r="E245" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H245" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>9506000</v>
+      </c>
+      <c r="J245" s="2">
+        <v>45173</v>
+      </c>
+      <c r="K245">
+        <v>135</v>
+      </c>
+      <c r="L245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
